--- a/practice/result/jd-comments_vivo-iqoo-pro-5g_好评率([62][62])result.xlsx
+++ b/practice/result/jd-comments_vivo-iqoo-pro-5g_好评率([62][62])result.xlsx
@@ -28,6 +28,9 @@
     <t>评价</t>
   </si>
   <si>
+    <t>很好的手机，外形美观，屏幕清晰，音质很好。拍照效果此较棒，夜景效果较好，4500大电池保证待机时间，一般一天一充没问题，关键充电快，基本50多分钟充满电。一键Al，游戏压感按键很有特色。发现运行欢乐@等程序会卡，NFC模拟门禁卡不好用，分别用卡片式，纽扣式模拟都不能用，希望能改进。好评！</t>
+  </si>
+  <si>
     <t>相比于前代产品iQOO来说，iQOO Pro从高通骁龙855，升级为高通骁龙855plus，UFS2.1的闪存规格升级为UFS3.0。除此之外，在拍照层面，索尼IMX363的传感器也升级为了索尼IMX582 4800万像素镜头，在充电续航层面更是全系标配了44W的超级快充，电池容量同样升级到了4500毫安时。此次vivo也是改变了iQOO 系列一贯的外包装，iQOO Pro的外包装更多的采用了不规则形状来堆砌，同时以黑金配色为主，在左右两侧则是更加突出了Hi-Res Audio和5G的标志！
 打开包装之后，里面依次为主机以及硅胶保护套，还有44W的超级快充组合，让笔者意外的是，这款手机还附赠了3.5毫米耳机接口的vivo耳机，这在如今的智能手机界已经很罕见了。值得一提的是，附赠的硅胶保护套和耳机都不是廉价产品，而是相当有质感的！
 从正面来看这款手机其实和iQOO系列正面的设计，几乎是一模一样的，同样的采用了水滴全面屏的设计，以及将听筒光线传感器做了隐藏式处理，综合的观感不错，屏占比来到了91.7%，而屏幕素质为三星Super AMOLED屏幕。</t>
@@ -54,13 +57,13 @@
     <t>以前一直用水果,这次换iQOO真的惊艳到了！除了有些重其他一切都OK!非常喜欢!5G还有待体验中!最喜欢游戏压感按键非常灵敏顺畅!</t>
   </si>
   <si>
-    <t>用了一个月多，很多性能都可以吊打其他手机，但是手机上下屏幕不对称，打游戏容易误触，手机水滴屏UI适应性还有待升级，手机的背灯有点鸡肋，打游戏时不会发光，其他都很优秀</t>
-  </si>
-  <si>
     <t>高配真的很流畅哎！打游戏绝对的神器，各种大型游戏毫无压力，至于5G嘛还要等待运营商，既然买了就买5G版吗，有备无患嘛！赞??</t>
   </si>
   <si>
     <t>期待的第一部5G手机到货上手了，第一感觉是触感丝滑，超级给力的，电池非常耐用，性能特别强悍，总之是大爱了没错，还有快递也是超给力的???有想法的酷友们赶紧入手吧，IQOO 5G 你值得拥有！</t>
+  </si>
+  <si>
+    <t>手机已经收到，京东物流棒棒的。整体看起来都很满意，就是什么都没有得送这个让人感觉很不舒服。实体店起码有好几样东西送大约值400--500感觉不应该在京东买，买了就发下牢骚而已，也不差那几百，还是给快递点赞的超快。手机用过之后再追评</t>
   </si>
   <si>
     <t>京东就是不一样，在本地挺大个实体店23号就预定了，29号在京东抢的，京东到货了，实体店还蒙圈呢，果断在实体店退订，兴奋的回家，把原来的s7edge传过来，好方便，也很快捷，5g手机iqoo无出其右，十分满意</t>
@@ -82,6 +85,9 @@
 运行速度：运行很快，轻量发热，玩游戏很爽，还能自定义按键</t>
   </si>
   <si>
+    <t>首先要赞的是充电，真的快，而且和耳机分开的，总之用电完全不是问题了。性能很好，安兔兔跑分47万+，吃鸡超爽，侧边按压键也很好用。物流超级快，下单后19小时到手，包装完好。</t>
+  </si>
+  <si>
     <t>外形外观：外观设计高大上，背部灯光效果很炫酷，虚拟键游戏很炫酷
 屏幕音效：屏幕画质不错，颜色饱满，指纹解锁酷炫
 拍照效果：4800万像素不虚
@@ -106,14 +112,6 @@
 拍照效果：拍照效果非常好。
 运行速度：高通骁龙855plus运行速度不用说了。
 待机时间：只要不是过度使用，用一天随随便便啦。</t>
-  </si>
-  <si>
-    <t>外形外观：设计的非常漂亮很喜欢，
-屏幕音效：是三星的屏幕反应迅速灵敏，音效也好，唯一的遗憾就是如果是双扬声器的就完美了。
-拍照效果：因为我是游戏党，拍照我不是很专业，看起来还是很不错的很清晰，特别是超广角很厉害。
-运行速度：运行速度方面没得说，快到飞起来。
-待机时间：正常使用一天没问题，
-其他特色：压感按键很带劲，5G方面没体验过，我家这边没有。</t>
   </si>
   <si>
     <t>外形外观：第一次使用vivo手机，没失望。monster很酷，LR游戏按键酷，息屏显示可以选择样式多，很棒
@@ -140,11 +138,21 @@
 运行速度：非常流畅，而且北京联通有5g网，上网真快。</t>
   </si>
   <si>
+    <t>手机很好用 
+44w充电超级快
+虚拟按键打游戏很方便   
+运行速度快
+性比价高  值得拥有</t>
+  </si>
+  <si>
     <t>外形外观：外观中规中矩多了两个游戏按键
 屏幕音效：屏幕显示清晰，触摸灵敏，很流畅
 拍照效果：拍照没试验，用的不多
 运行速度：运行流畅，刚拿到没做更多尝试
 其他特色：充电很快，手机比较重，拿到手机第一感觉就是很重，充电器也大</t>
+  </si>
+  <si>
+    <t>反应很快  屏幕触摸感很细腻  盯这款手机好久了 真的不错  充电也很快</t>
   </si>
   <si>
     <t>外形外观：整体不错，手机有点偏沉。
@@ -191,14 +199,6 @@
     <t>再三比较最终还是选择了IQOOPRO,在实体店拿起来感觉超级重，现在到手了感觉还是可以的，手感极好！用后追评！</t>
   </si>
   <si>
-    <t>外形外观：黑色大气很好
-屏幕音效：音量很大，音质很好
-拍照效果：超好，微距太厉害了，朋友都夸我拍的好
-运行速度：5G速度很快，就算没有信号的地方，4g也很快
-待机时间：一天是没问题的充电也快
-其他特色：希望能出女孩子用的颜色，我是女孩子呀</t>
-  </si>
-  <si>
     <t>体验感非常好 打游戏飞快，并没有断触断流的现象，那些说断触断流的怕不是买到了假货
 待机时间：包括看视频打游戏一天没问题，充电速度快的飞起</t>
   </si>
@@ -209,6 +209,14 @@
 拍照效果：本人对拍照没有什么要求，试了一下挺棒的
 运行速度：在710手机上卡，在这个手机上用毫无压力。
 其他特色：关于游戏的一些设置挺好。</t>
+  </si>
+  <si>
+    <t>外形外观：原装保护套个人感觉太厚了，不大行，需要另外买个超薄的。现在还在用裸机，外形并没有特别引人注目，同事甚至没看出我买了个新手机。
+屏幕音效：单扬声器的手机中音效最好的？
+拍照效果：游戏手机并不关心这个。
+运行速度：很快
+待机时间：很长，电量充足随便玩
+其他特色：快充不要一小时充满，5g还有压感目前用的很少。</t>
   </si>
   <si>
     <t>手机样子很好看，灯很炫酷，充电超级快，游戏模式很给力，游戏辅助按键可以让一些爱玩吃鸡游戏的玩家体验一种简单有趣的操作。这个手机还可以同时连两个无线网，可以同时使用无线网跟手机数据，让在4G基础上网速更上一层楼。用安兔兔跑分47万，真是太棒了，等5g信号覆盖后，网速就更快了，京东的服务真是太好了
@@ -258,6 +266,9 @@
 后面追评给大家详细评测</t>
   </si>
   <si>
+    <t>超级期待的第一部5G手机到货上手了，第一感觉是触感丝滑，超级给力的，电池非常耐用，性能特别强悍，总之是大爱了没错，还有快递也是超给力的???有想法的酷友们赶紧入手吧，IQOO 5G 你值得拥有！相信京东，支持一下</t>
+  </si>
+  <si>
     <t>外形外观：
 lQOO全面屏加上当前特别流行的水滴屏超级棒非常漂亮，6.41英寸灵动水滴全面屏使用起来刚刚好的尺寸，3D背部玻璃机身设计尽显高端质感，玻璃后盖手感也是超级舒服，4000mAh超大电池，加44w的闪充技术，再也不用担心续航能力了，搭载高通骁龙855旗舰平台，配备NFC、Type-C接口，使用起来更是非常不错
 屏幕音效：进入游戏模式真的给力！听筒的声音也挺大的，扬声器声音也挺大的
@@ -310,22 +321,6 @@
     <t>功能比其他手机要多 旁边多了两个按键 ，很不错，</t>
   </si>
   <si>
-    <t>外形外观：设计精美
-屏幕音效：音质完美，触摸灵敏
-拍照效果：效果逼真智能
-运行速度：不会卡顿
-待机时间：电池耐用
-其他特色：灯光效果很好，手感也完美！</t>
-  </si>
-  <si>
-    <t>外形外观：水滴屏超窄边框超赞
-屏幕音效：显示惊艳，音效听得舒服
-拍照效果：清浙拍照，
-运行速度：不卡顿，运行流畅
-待机时间：电量十足，一天足也
-其他特色：太厚了，太沉了</t>
-  </si>
-  <si>
     <t>外形外观：笨重，单手无法操作
 屏幕音效：屏幕清晰，黑边比较大；音效很不错
 拍照效果：优化很好，拍照效果不错
@@ -334,67 +329,38 @@
 很不错，都很棒棒！！！</t>
   </si>
   <si>
-    <t>运行速度：反应很快
-拍照效果：照片清晰，像素高
-外形外观：尺寸适中，便于携带
-其他特色：音量不大，好像与其他品牌耳机兼容不好，匹配索尼耳机后最大音量也非常小</t>
-  </si>
-  <si>
-    <t>外形外观：灯带漂亮，屏幕很大。
-运行速度：运行速度挺快的。感觉很好。
-屏幕音效：清晰
-拍照效果：清晰
-待机时间：充电时间很短，电量充足
-其他特色：压感按键，吃鸡神器</t>
-  </si>
-  <si>
-    <t>外形外观：挺漂亮
-屏幕音效：超棒，音量大，音质很好
-拍照效果：还没试过，不怎么拍照
-运行速度：很快，打王者满帧一点不卡
-待机时间：一般般吧，没觉得4500有多大
-其他特色：运行速度超快，手机略重，没发现什么问题，挺满意的</t>
-  </si>
-  <si>
-    <t>外形外观：外观很好看，灯带炫酷
-屏幕音效：音效不错
-拍照效果：4800万像素很清晰
-运行速度：12G的运存毫无压力
-待机时间：4500毫安电池任性玩
-其他特色：5G网络支持</t>
-  </si>
-  <si>
-    <t>外形外观：外形很赞，背面呼吸灯很有科技感
-屏幕音效：音效不错
-运行速度：速度很快，游戏来回切换无压力
-待机时间：电池容量大，待机时间挺长的</t>
-  </si>
-  <si>
-    <t>外形外观:很帅气的外观
-屏幕音效:屏幕不错,音效立体
-拍照效果:拍照超清晰
-运行速度:一个字快
-待机时间:正在用,目前看来深度玩一天没有问
-题
-其他特色:玩游戏超爽
-问题:打王者团战一激动容易触动Al键，忘换一下位置！</t>
+    <t>外形外观：漂亮，nice屏幕音效：4D游戏震感，没的说拍照效果：4800万像素，香的一批运行速度：12G运行内存，想不快都不行待机时间：4500毫安大电池，加上44w超级闪充，强的一批其他特色：先说物流，京东物流，快到飞起，头天晚上下单，第二天早上就送到了，还送了~王卡。手机侧边压感按键，打游戏贼舒服，NFC功能，带个手机啥都能干，骁龙855plus，monster模式，90hz显示屏，打游戏开到满帧流畅到爆，5G功能也有，网速快的飞起，吹爆iQOOPro5G，香！</t>
   </si>
   <si>
     <t>外形外观：水滴屏，窄边框，窄下巴，玻璃后盖，碳纤维纹路，RGB炫彩灯光，外观很好看，挑不出什么毛病。拿在手里手感略重，但手感不错，金属边框拿在手里没有咯手的感觉。屏幕音效：屏幕观感不错，和魅族16比起来色彩比较艳丽，音效外放声音很足，音质也不错，不过我一般都是戴的蓝牙耳机。拍照效果：我用的第一款三摄手机，效果要比魅族16要好很多，超广角功能很实用，还有AI拍照，分分钟带你成为拍照大神。运行速度：这款手机买来就是玩游戏的，下的也有很多软件，运行速度没话说，吃鸡王者从来不卡，刷个~，贴吧的更是没什么问题。待机时间：由于手里还有个魅族16，所以把iqoo当备用机，平时玩玩游戏，看看电视剧，基本两天一充，如果当主机使用的话一天也是没什么问题的，毕竟有4500毫安的电池和44w超级快充。其他特色：第二次用vivo的手机，第一次用的时候是14年的时候，感觉变化好大，系统很好用，有很多实用的功能，让我慢慢喜欢这个系统，屏下指纹解锁很快识别率很高，比我手里的魅族16要好很多。4500毫安电池配合超级快充再也没有电量焦虑，到哪都可以嗨起来玩。游戏魔盒功能很强大，吃鸡的时候用AB模拟键更好操</t>
   </si>
   <si>
-    <t>手机很厚实，拿在手里沉甸甸的，很有手感，通话清晰度让人惊艳，在高速辅路巨吵的环境下依然清晰，这点比之前用的手机强多了，还有是充电速度，冲着44瓦快充买的，基本半小时到90%，开着5g待机一晚上掉了5%的电，意外的满意，应该是系统的功劳，系统功能特别多，很多是以前用的安卓机没接触过的，要慢慢摸索了，也可能是因为5g比4g省电，反正手机换对了。
-外形外观：沉稳扎实
-屏幕音效：清脆动听
-拍照效果：真实清晰，美颜效果好
-运行速度：自带的软件除了淘宝都是秒开
-待机时间：开5g一晚才掉5%的电</t>
+    <t>手机很厚实，拿在手里沉甸甸的，很有手感，通话清晰度让人惊艳，在高速辅路巨吵的环境下依然清晰，这点比之前用的手机强多了，还有是充电速度，冲着44瓦快充买的，基本半小时到90%，开着5g待机一晚上掉了5%的电，意外的满意，应该是系统的功劳，系统功能特别多，很多是以前用的安卓机没接触过的，要慢慢摸索了，也可能是因为5g比4g省电，反正手机换对了。外形外观：沉稳扎实屏幕音效：清脆动听拍照效果：真实清晰，美颜效果好运行速度：自带的软件除了~都是秒开待机时间：开5g一晚才掉5%的电</t>
   </si>
   <si>
     <t>外形外观：非常好看。。手感舒服。拍照效果：拍照也非常清晰&amp;hellip;屏幕音效：这款手机重低音非常好&amp;hellip;&amp;hellip;原装配的耳机也非常好用&amp;hellip;个人感觉台8G运行内存足够使用了。我连接无线网没有5G覆盖的情况速度也是非常的快&amp;hellip;&amp;hellip;吃鸡玩王者荣耀一点压力都没有&amp;hellip;12G运行内存一般主播。土豪群体比较追求潮流吧&amp;hellip;&amp;hellip;我们#丝还是量力而行吧&amp;hellip;&amp;hellip;</t>
   </si>
   <si>
+    <t>外形外观：设计的非常漂亮很喜欢，
+屏幕音效：是三星的屏幕反应迅速灵敏，音效也好，唯一的遗憾就是如果是双扬声器的就完美了。
+拍照效果：因为我是游戏党，拍照我不是很专业，看起来还是很不错的很清晰，特别是超广角很厉害。
+运行速度：运行速度方面没得说，快到飞起来。
+待机时间：正常使用一天没问题，
+其他特色：压感按键很带劲，5G方面没体验过，我家这边没有。</t>
+  </si>
+  <si>
+    <t>外形外观：黑色大气很好
+屏幕音效：音量很大，音质很好
+拍照效果：超好，微距太厉害了，朋友都夸我拍的好
+运行速度：5G速度很快，就算没有信号的地方，4g也很快
+待机时间：一天是没问题的充电也快
+其他特色：希望能出女孩子用的颜色，我是女孩子呀</t>
+  </si>
+  <si>
     <t>外形外观：厚重大气屏幕音效：显示清晰，音效饱满拍照效果：4800W像素拍照清晰运行速度：12g运行内存非常快待机时间：4500毫安大电池续航持久其他特色：5g网络的速度相比于4g网络提升了不止一个台阶，LED灯带酷炫#炸天，44W超级闪充充电速度快的飞起，多功能NFC可支付，可绑定公交卡，可复制门禁卡，HIFI音质让耳朵去享受声临其境，压感按键玩游戏简直就是物理外挂，再也不怕落地成盒了！</t>
+  </si>
+  <si>
+    <t>待机时间：我将手机的音量和亮度都调整为50%，连接上热点，关闭手机流量、蓝牙和定位。经过一小时****播放，iQOOPro5G版耗电6%，结果非常理想。可以看出，在大电池的基础上，iQOOPro5G版的内部省电优化做得还是非常不错的。运行速度：骁龙855Plus，7**工艺制程、最高2.96GHz主频，性能提高15%，最高提供12GB（LPDDR4X高速运存）+256GB（UFS3.0高速闪存）的内存版本&amp;nbsp;，硬件性能十分强大，加上多种优化，电竞体验非常出色。在安兔兔最新的9月安卓手机性能排行里拿到了第二的高位，得分仅比排名第一的少了2216分，强悍。其他特色：作为目前5G机型销量最好、价格非常亲民的iQOOPro5G版，其续航体验没有因为价格的实惠而有任何缩水，不论是日常~~还是游戏追剧，都有着不错的续航体验。5G手机不仅仅是天线上的升级，射频部分/Modem/散热设计/主板集成度都比4G手机有很大的升级。由此看来，初期的5G手机价格高还有挺有道理的，外形外观：全新iQOOPro后盖采用了亮光碳纤维纹理设计，不同角度能折射出不一样的光影效果有视觉冲击力</t>
   </si>
   <si>
     <t>好评</t>
@@ -777,7 +743,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -786,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>0.9979116177840933</v>
+        <v>0.9999999926199341</v>
       </c>
       <c r="E2" t="s">
         <v>66</v>
@@ -794,7 +760,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -803,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>0.999999498251539</v>
+        <v>0.9979116177840933</v>
       </c>
       <c r="E3" t="s">
         <v>66</v>
@@ -811,7 +777,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -820,7 +786,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.9998502950256974</v>
+        <v>0.999999498251539</v>
       </c>
       <c r="E4" t="s">
         <v>66</v>
@@ -828,7 +794,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -837,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>0.9524310018846573</v>
+        <v>0.9998502950256974</v>
       </c>
       <c r="E5" t="s">
         <v>66</v>
@@ -845,7 +811,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -854,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.9801934398324096</v>
+        <v>0.9524310018846573</v>
       </c>
       <c r="E6" t="s">
         <v>66</v>
@@ -862,7 +828,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -871,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>0.9999999999506399</v>
+        <v>0.9801934398324096</v>
       </c>
       <c r="E7" t="s">
         <v>66</v>
@@ -879,7 +845,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -888,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.9725545451861343</v>
+        <v>0.9999999999506399</v>
       </c>
       <c r="E8" t="s">
         <v>66</v>
@@ -896,7 +862,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -905,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>0.9608358095325717</v>
+        <v>0.9725545451861343</v>
       </c>
       <c r="E9" t="s">
         <v>66</v>
@@ -913,7 +879,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -922,7 +888,7 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>0.9764541529112125</v>
+        <v>0.9608358095325717</v>
       </c>
       <c r="E10" t="s">
         <v>66</v>
@@ -930,7 +896,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -947,7 +913,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -964,7 +930,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -973,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>0.05165662588448749</v>
+        <v>0.9999278653096655</v>
       </c>
       <c r="E13" t="s">
         <v>66</v>
@@ -981,7 +947,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -990,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>0.04916526667861354</v>
+        <v>0.05165662588448749</v>
       </c>
       <c r="E14" t="s">
         <v>66</v>
@@ -998,7 +964,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1007,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>0.9999999998275308</v>
+        <v>0.04916526667861354</v>
       </c>
       <c r="E15" t="s">
         <v>66</v>
@@ -1015,7 +981,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1024,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>0.9999999999371492</v>
+        <v>0.9999999998275308</v>
       </c>
       <c r="E16" t="s">
         <v>66</v>
@@ -1032,7 +998,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -1041,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="D17">
-        <v>0.9999999998047253</v>
+        <v>0.9999999999371492</v>
       </c>
       <c r="E17" t="s">
         <v>66</v>
@@ -1049,7 +1015,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1058,7 +1024,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>0.9945993691673209</v>
+        <v>0.9999233929367847</v>
       </c>
       <c r="E18" t="s">
         <v>66</v>
@@ -1066,7 +1032,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -1075,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>0.9999999999999998</v>
+        <v>0.9999999998047253</v>
       </c>
       <c r="E19" t="s">
         <v>66</v>
@@ -1083,7 +1049,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -1092,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="D20">
-        <v>0.9999992996135658</v>
+        <v>0.9945993691673209</v>
       </c>
       <c r="E20" t="s">
         <v>66</v>
@@ -1100,7 +1066,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -1109,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>0.9999999999974669</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E21" t="s">
         <v>66</v>
@@ -1117,7 +1083,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -1126,7 +1092,7 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>0.9999999991258217</v>
+        <v>0.9999992996135658</v>
       </c>
       <c r="E22" t="s">
         <v>66</v>
@@ -1134,7 +1100,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -1143,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>0.9999999996749047</v>
+        <v>0.9999999991258217</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -1151,7 +1117,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1160,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>0.9999999999998161</v>
+        <v>0.9999999996749047</v>
       </c>
       <c r="E24" t="s">
         <v>66</v>
@@ -1168,7 +1134,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
@@ -1177,7 +1143,7 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <v>0.9999999999882756</v>
+        <v>0.9999999999998161</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -1185,7 +1151,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -1194,7 +1160,7 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <v>0.9999991731623687</v>
+        <v>0.9999874374247949</v>
       </c>
       <c r="E26" t="s">
         <v>66</v>
@@ -1202,7 +1168,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -1211,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>0.9999999937669775</v>
+        <v>0.9999999999882756</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
@@ -1219,7 +1185,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -1228,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>0.4460316422540243</v>
+        <v>0.9998082871016692</v>
       </c>
       <c r="E28" t="s">
         <v>66</v>
@@ -1236,7 +1202,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
@@ -1245,7 +1211,7 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>0.9999996006779071</v>
+        <v>0.9999991731623687</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -1253,7 +1219,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
@@ -1262,7 +1228,7 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>0.9999997567009721</v>
+        <v>0.9999999937669775</v>
       </c>
       <c r="E30" t="s">
         <v>66</v>
@@ -1270,7 +1236,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
@@ -1279,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>0.9999999999999998</v>
+        <v>0.4460316422540243</v>
       </c>
       <c r="E31" t="s">
         <v>66</v>
@@ -1287,7 +1253,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -1296,7 +1262,7 @@
         <v>5</v>
       </c>
       <c r="D32">
-        <v>0.1522808206416264</v>
+        <v>0.9999996006779071</v>
       </c>
       <c r="E32" t="s">
         <v>66</v>
@@ -1304,7 +1270,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -1313,7 +1279,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>0.9999999985605903</v>
+        <v>0.9999997567009721</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -1321,7 +1287,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
@@ -1330,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="D34">
-        <v>0.9855664842514477</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E34" t="s">
         <v>66</v>
@@ -1338,7 +1304,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -1347,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="D35">
-        <v>0.9999999491536836</v>
+        <v>0.1522808206416264</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -1355,7 +1321,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
@@ -1364,7 +1330,7 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>0.9999999999998248</v>
+        <v>0.9855664842514477</v>
       </c>
       <c r="E36" t="s">
         <v>66</v>
@@ -1372,7 +1338,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
@@ -1381,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="D37">
-        <v>0.9999716311907394</v>
+        <v>0.9999999491536836</v>
       </c>
       <c r="E37" t="s">
         <v>66</v>
@@ -1389,7 +1355,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
@@ -1398,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>0.999999999999984</v>
+        <v>0.9999981282525527</v>
       </c>
       <c r="E38" t="s">
         <v>66</v>
@@ -1406,7 +1372,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
@@ -1415,7 +1381,7 @@
         <v>5</v>
       </c>
       <c r="D39">
-        <v>0.9999999996793614</v>
+        <v>0.9999999999998248</v>
       </c>
       <c r="E39" t="s">
         <v>66</v>
@@ -1423,7 +1389,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>502</v>
+        <v>547</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
@@ -1432,7 +1398,7 @@
         <v>5</v>
       </c>
       <c r="D40">
-        <v>0.9999999999999927</v>
+        <v>0.9999716311907394</v>
       </c>
       <c r="E40" t="s">
         <v>66</v>
@@ -1440,7 +1406,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -1449,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>0.9999999999999962</v>
+        <v>0.999999999999984</v>
       </c>
       <c r="E41" t="s">
         <v>66</v>
@@ -1457,7 +1423,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>517</v>
+        <v>565</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
@@ -1466,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="D42">
-        <v>0.9999999993965081</v>
+        <v>0.9999999996793614</v>
       </c>
       <c r="E42" t="s">
         <v>66</v>
@@ -1474,7 +1440,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>527</v>
+        <v>581</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
@@ -1483,7 +1449,7 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>0.999999999999964</v>
+        <v>0.9999999999999927</v>
       </c>
       <c r="E43" t="s">
         <v>66</v>
@@ -1491,7 +1457,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>534</v>
+        <v>583</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -1500,7 +1466,7 @@
         <v>5</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.9999999999999962</v>
       </c>
       <c r="E44" t="s">
         <v>66</v>
@@ -1508,7 +1474,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>542</v>
+        <v>590</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
@@ -1517,7 +1483,7 @@
         <v>5</v>
       </c>
       <c r="D45">
-        <v>0.9999999947471956</v>
+        <v>0.9999999993965081</v>
       </c>
       <c r="E45" t="s">
         <v>66</v>
@@ -1525,7 +1491,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>546</v>
+        <v>598</v>
       </c>
       <c r="B46" t="s">
         <v>48</v>
@@ -1534,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <v>0.999999999999998</v>
+        <v>0.9999839094887928</v>
       </c>
       <c r="E46" t="s">
         <v>66</v>
@@ -1542,7 +1508,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>554</v>
+        <v>601</v>
       </c>
       <c r="B47" t="s">
         <v>49</v>
@@ -1551,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="D47">
-        <v>0.9999999999836742</v>
+        <v>0.999999999999964</v>
       </c>
       <c r="E47" t="s">
         <v>66</v>
@@ -1559,7 +1525,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B48" t="s">
         <v>50</v>
@@ -1568,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <v>0.9999999997042424</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>66</v>
@@ -1576,7 +1542,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
@@ -1585,7 +1551,7 @@
         <v>5</v>
       </c>
       <c r="D49">
-        <v>0.9953529351235654</v>
+        <v>0.9999999947471956</v>
       </c>
       <c r="E49" t="s">
         <v>66</v>
@@ -1593,7 +1559,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>701</v>
+        <v>623</v>
       </c>
       <c r="B50" t="s">
         <v>52</v>
@@ -1602,7 +1568,7 @@
         <v>5</v>
       </c>
       <c r="D50">
-        <v>0.8989821555100622</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="E50" t="s">
         <v>66</v>
@@ -1610,7 +1576,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>776</v>
+        <v>643</v>
       </c>
       <c r="B51" t="s">
         <v>53</v>
@@ -1619,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="D51">
-        <v>0.9999997543072494</v>
+        <v>0.9999999999836742</v>
       </c>
       <c r="E51" t="s">
         <v>66</v>
@@ -1627,7 +1593,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>777</v>
+        <v>709</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
@@ -1636,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="D52">
-        <v>0.9999999862017357</v>
+        <v>0.9999999997042424</v>
       </c>
       <c r="E52" t="s">
         <v>66</v>
@@ -1644,7 +1610,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>784</v>
+        <v>759</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
@@ -1653,7 +1619,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>0.9999999997722306</v>
+        <v>0.9953529351235654</v>
       </c>
       <c r="E53" t="s">
         <v>66</v>
@@ -1661,7 +1627,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>790</v>
+        <v>822</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
@@ -1670,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="D54">
-        <v>0.9999996405647469</v>
+        <v>0.8989821555100622</v>
       </c>
       <c r="E54" t="s">
         <v>66</v>
@@ -1678,7 +1644,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>801</v>
+        <v>903</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
@@ -1687,7 +1653,7 @@
         <v>5</v>
       </c>
       <c r="D55">
-        <v>0.9999999024590938</v>
+        <v>0.9999999997722306</v>
       </c>
       <c r="E55" t="s">
         <v>66</v>
@@ -1695,7 +1661,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>826</v>
+        <v>947</v>
       </c>
       <c r="B56" t="s">
         <v>58</v>
@@ -1704,7 +1670,7 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <v>0.9999999997829223</v>
+        <v>0.9999989117936545</v>
       </c>
       <c r="E56" t="s">
         <v>66</v>
@@ -1712,7 +1678,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>878</v>
+        <v>948</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
@@ -1721,7 +1687,7 @@
         <v>5</v>
       </c>
       <c r="D57">
-        <v>0.9999999999469131</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
         <v>66</v>
@@ -1729,7 +1695,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>879</v>
+        <v>949</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -1738,7 +1704,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>0.9999999979733329</v>
+        <v>0.9999999998986104</v>
       </c>
       <c r="E58" t="s">
         <v>66</v>
@@ -1746,7 +1712,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>909</v>
+        <v>953</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
@@ -1755,7 +1721,7 @@
         <v>5</v>
       </c>
       <c r="D59">
-        <v>0.9999999999949902</v>
+        <v>0.9999999995352731</v>
       </c>
       <c r="E59" t="s">
         <v>66</v>
@@ -1763,7 +1729,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>929</v>
+        <v>954</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
@@ -1772,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0.9999999999974669</v>
       </c>
       <c r="E60" t="s">
         <v>66</v>
@@ -1780,7 +1746,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>930</v>
+        <v>965</v>
       </c>
       <c r="B61" t="s">
         <v>63</v>
@@ -1789,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="D61">
-        <v>0.9999999999340994</v>
+        <v>0.9999999985605903</v>
       </c>
       <c r="E61" t="s">
         <v>66</v>
@@ -1797,7 +1763,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>933</v>
+        <v>969</v>
       </c>
       <c r="B62" t="s">
         <v>64</v>
@@ -1806,7 +1772,7 @@
         <v>5</v>
       </c>
       <c r="D62">
-        <v>0.9999999995352731</v>
+        <v>0.9999999998231865</v>
       </c>
       <c r="E62" t="s">
         <v>66</v>
@@ -1814,7 +1780,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>940</v>
+        <v>972</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
@@ -1823,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>0.9999999998231865</v>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
         <v>66</v>
